--- a/tradept/Excel/Localization/Main/english/C触发器_Triggers_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C触发器_Triggers_hotfix.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E3F06-BB5C-467E-9753-E14AB404E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="444"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="2" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Administrator</d:author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>该项用以绑定触发选项。
+          <t xml:space="preserve">该项用以绑定触发选项。
 例如：和NPC对话时多出的选项框显示文字。</t>
-        </r>
+        </d:r>
       </text>
     </comment>
   </commentList>
@@ -743,7 +737,7 @@
     <t>红石谷乌鸦飞起特效1</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -752,7 +746,7 @@
       </rPr>
       <t>红石谷乌鸦飞起特效</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -934,8 +928,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -943,8 +943,133 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -965,32 +1090,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="25">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1108,186 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
@@ -1071,11 +1355,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFFFEA04" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1100,210 +1384,643 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="102">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="13" applyFill="1" borderId="4" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="10" applyFill="1" borderId="7" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="4" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="9" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="50" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="52" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="41" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="42" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="42" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="43" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="43" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="44" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="44" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="45" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="45" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="46" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="46" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="47" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="47" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="48" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="48" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="49" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="49" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="50" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="50" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="51" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="51" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="52" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="52" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="53" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="53" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="54" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+  <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFEFFA3"/>
+      <color rgb="00FEFFA3"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1632,1742 +2349,1734 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5">
-      <c r="A1" s="46" t="s">
+    <row r="1">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22.5">
-      <c r="A11" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22.5">
-      <c r="A12" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22.5">
-      <c r="A13" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.5">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="55"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.5">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="55"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.5">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="22.5">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="55"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" ht="22.5">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="55"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="22.5">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="55"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.5">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="55"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="22.5">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="55"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="22.5">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="55"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="22.5">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="55"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="22.5">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="55"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="22.5">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="55"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="22.5">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="55"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" ht="22.5">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="55"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="22.5">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="55"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="22.5">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="55"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" ht="22.5">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="55"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="22.5">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="55"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" ht="22.5">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="55"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" ht="22.5">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="55"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="55"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" ht="27">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="55"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" ht="27">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="55"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" ht="27">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="55"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="27">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="55"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" ht="27">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="55"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" ht="27">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="55"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" ht="27">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="55"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="22.5">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="55"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" ht="22.5">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="55"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="22.5">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="55"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" ht="22.5">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="55"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" ht="27">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="55"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" ht="27">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="55"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="27">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="55"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" ht="27">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="55"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" ht="27">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="55"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" ht="27">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="55"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" ht="40.5">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="55"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" ht="40.5">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="55"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" ht="27">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="55"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" ht="40.5">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="55"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" ht="40.5">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="55"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" ht="40.5">
-      <c r="A57" s="6" t="s">
+      <c r="B56" s="55"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:2" ht="40.5">
-      <c r="A58" s="6" t="s">
+      <c r="B57" s="60"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:2" ht="40.5">
-      <c r="A59" s="6" t="s">
+      <c r="B58" s="60"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" ht="40.5">
-      <c r="A60" s="8" t="s">
+      <c r="B59" s="60"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="1:2" ht="40.5">
-      <c r="A61" s="8" t="s">
+      <c r="B60" s="63"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" ht="40.5">
-      <c r="A62" s="8" t="s">
+      <c r="B61" s="63"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" ht="40.5">
-      <c r="A63" s="6" t="s">
+      <c r="B62" s="63"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="1:2" ht="40.5">
-      <c r="A64" s="6" t="s">
+      <c r="B63" s="60"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" ht="40.5">
-      <c r="A65" s="6" t="s">
+      <c r="B64" s="60"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="1:2" ht="27">
-      <c r="A66" s="11" t="s">
+      <c r="B65" s="60"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="1:2" ht="27">
-      <c r="A67" s="11" t="s">
+      <c r="B66" s="65"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="12"/>
-    </row>
-    <row r="68" spans="1:2" ht="27">
-      <c r="A68" s="11" t="s">
+      <c r="B67" s="65"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="12"/>
-    </row>
-    <row r="69" spans="1:2" ht="40.5">
-      <c r="A69" s="13" t="s">
+      <c r="B68" s="65"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="14"/>
-    </row>
-    <row r="70" spans="1:2" ht="40.5">
-      <c r="A70" s="13" t="s">
+      <c r="B69" s="67"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:2" ht="40.5">
-      <c r="A71" s="13" t="s">
+      <c r="B70" s="67"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="1:2" ht="27">
-      <c r="A72" s="15" t="s">
+      <c r="B71" s="67"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" ht="27">
-      <c r="A73" s="15" t="s">
+      <c r="B72" s="55"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" ht="27">
-      <c r="A74" s="15" t="s">
+      <c r="B73" s="55"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" ht="27">
-      <c r="A75" s="15" t="s">
+      <c r="B74" s="55"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="15" t="s">
+      <c r="B75" s="55"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" ht="27">
-      <c r="A77" s="15" t="s">
+      <c r="B76" s="55"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" ht="27">
-      <c r="A78" s="15" t="s">
+      <c r="B77" s="55"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" ht="27">
-      <c r="A79" s="15" t="s">
+      <c r="B78" s="55"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" ht="27">
-      <c r="A80" s="15" t="s">
+      <c r="B79" s="55"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" ht="27">
-      <c r="A81" s="15" t="s">
+      <c r="B80" s="55"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" ht="27">
-      <c r="A82" s="15" t="s">
+      <c r="B81" s="55"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" ht="27">
-      <c r="A83" s="15" t="s">
+      <c r="B82" s="55"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" ht="27">
-      <c r="A84" s="15" t="s">
+      <c r="B83" s="55"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" ht="27">
-      <c r="A85" s="15" t="s">
+      <c r="B84" s="55"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" ht="27">
-      <c r="A86" s="15" t="s">
+      <c r="B85" s="55"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" ht="27">
-      <c r="A87" s="15" t="s">
+      <c r="B86" s="55"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" ht="22.5">
-      <c r="A88" s="1" t="s">
+      <c r="B87" s="55"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" ht="22.5">
-      <c r="A89" s="1" t="s">
+      <c r="B88" s="55"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" ht="33.75">
-      <c r="A90" s="1" t="s">
+      <c r="B89" s="55"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" ht="54">
-      <c r="A91" s="4" t="s">
+      <c r="B90" s="55"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" ht="54">
-      <c r="A92" s="4" t="s">
+      <c r="B91" s="55"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" ht="54">
-      <c r="A93" s="4" t="s">
+      <c r="B92" s="55"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" ht="40.5">
-      <c r="A94" s="4" t="s">
+      <c r="B93" s="55"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" ht="40.5">
-      <c r="A95" s="4" t="s">
+      <c r="B94" s="55"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" ht="40.5">
-      <c r="A96" s="4" t="s">
+      <c r="B95" s="55"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" ht="54">
-      <c r="A97" s="4" t="s">
+      <c r="B96" s="55"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" ht="54">
-      <c r="A98" s="4" t="s">
+      <c r="B97" s="55"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" ht="54">
-      <c r="A99" s="4" t="s">
+      <c r="B98" s="55"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" ht="40.5">
-      <c r="A100" s="4" t="s">
+      <c r="B99" s="55"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" ht="22.5">
-      <c r="A101" s="1" t="s">
+      <c r="B100" s="55"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" ht="33.75">
-      <c r="A102" s="1" t="s">
+      <c r="B101" s="55"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="B102" s="55"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" ht="22.5">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="55"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" ht="22.5">
-      <c r="A105" s="1" t="s">
+      <c r="B104" s="55"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" ht="22.5">
-      <c r="A106" s="1" t="s">
+      <c r="B105" s="55"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" ht="22.5">
-      <c r="A107" s="1" t="s">
+      <c r="B106" s="55"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" ht="22.5">
-      <c r="A108" s="1" t="s">
+      <c r="B107" s="55"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" ht="22.5">
-      <c r="A109" s="1" t="s">
+      <c r="B108" s="55"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" ht="33.75">
-      <c r="A110" s="1" t="s">
+      <c r="B109" s="55"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2" ht="22.5">
-      <c r="A111" s="16" t="s">
+      <c r="B110" s="55"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="17"/>
-    </row>
-    <row r="112" spans="1:2" ht="33.75">
-      <c r="A112" s="18" t="s">
+      <c r="B111" s="70"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="19"/>
-    </row>
-    <row r="113" spans="1:2" ht="22.5">
-      <c r="A113" s="1" t="s">
+      <c r="B112" s="72"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" ht="22.5">
-      <c r="A114" s="1" t="s">
+      <c r="B113" s="55"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" ht="40.5">
-      <c r="A115" s="4" t="s">
+      <c r="B114" s="55"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" ht="40.5">
-      <c r="A116" s="4" t="s">
+      <c r="B115" s="55"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" ht="40.5">
-      <c r="A117" s="4" t="s">
+      <c r="B116" s="55"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" ht="40.5">
-      <c r="A118" s="4" t="s">
+      <c r="B117" s="55"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" ht="40.5">
-      <c r="A119" s="4" t="s">
+      <c r="B118" s="55"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2" ht="40.5">
-      <c r="A120" s="4" t="s">
+      <c r="B119" s="55"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" ht="40.5">
-      <c r="A121" s="4" t="s">
+      <c r="B120" s="55"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" ht="40.5">
-      <c r="A122" s="4" t="s">
+      <c r="B121" s="55"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" ht="40.5">
-      <c r="A123" s="4" t="s">
+      <c r="B122" s="55"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" ht="40.5">
-      <c r="A124" s="4" t="s">
+      <c r="B123" s="55"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" ht="22.5">
-      <c r="A125" s="1" t="s">
+      <c r="B124" s="55"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" ht="22.5">
-      <c r="A126" s="1" t="s">
+      <c r="B125" s="55"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" ht="22.5">
-      <c r="A127" s="1" t="s">
+      <c r="B126" s="55"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" ht="22.5">
-      <c r="A128" s="1" t="s">
+      <c r="B127" s="55"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" ht="22.5">
-      <c r="A129" s="1" t="s">
+      <c r="B128" s="55"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" ht="22.5">
-      <c r="A130" s="1" t="s">
+      <c r="B129" s="55"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" ht="22.5">
-      <c r="A131" s="1" t="s">
+      <c r="B130" s="55"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" ht="33.75">
-      <c r="A132" s="1" t="s">
+      <c r="B131" s="55"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" ht="22.5">
-      <c r="A133" s="1" t="s">
+      <c r="B132" s="55"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" ht="22.5">
-      <c r="A134" s="1" t="s">
+      <c r="B133" s="55"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" ht="22.5">
-      <c r="A135" s="1" t="s">
+      <c r="B134" s="55"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" ht="27">
-      <c r="A136" s="4" t="s">
+      <c r="B135" s="55"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" ht="27">
-      <c r="A137" s="4" t="s">
+      <c r="B136" s="55"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" ht="27">
-      <c r="A138" s="4" t="s">
+      <c r="B137" s="55"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" ht="27">
-      <c r="A139" s="4" t="s">
+      <c r="B138" s="55"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" ht="27">
-      <c r="A140" s="4" t="s">
+      <c r="B139" s="55"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" ht="27">
-      <c r="A141" s="4" t="s">
+      <c r="B140" s="55"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" ht="27">
-      <c r="A142" s="4" t="s">
+      <c r="B141" s="55"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" ht="27">
-      <c r="A143" s="4" t="s">
+      <c r="B142" s="55"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" ht="40.5">
-      <c r="A144" s="4" t="s">
+      <c r="B143" s="55"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" ht="54">
-      <c r="A145" s="4" t="s">
+      <c r="B144" s="55"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" ht="54">
-      <c r="A146" s="4" t="s">
+      <c r="B145" s="55"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" ht="40.5">
-      <c r="A147" s="4" t="s">
+      <c r="B146" s="55"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" ht="54">
-      <c r="A148" s="4" t="s">
+      <c r="B147" s="55"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" ht="27">
-      <c r="A149" s="4" t="s">
+      <c r="B148" s="55"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" ht="40.5">
-      <c r="A150" s="4" t="s">
+      <c r="B149" s="55"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" ht="27">
-      <c r="A151" s="4" t="s">
+      <c r="B150" s="55"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" ht="27">
-      <c r="A152" s="4" t="s">
+      <c r="B151" s="55"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:2" ht="40.5">
-      <c r="A153" s="4" t="s">
+      <c r="B152" s="55"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" ht="27">
-      <c r="A154" s="4" t="s">
+      <c r="B153" s="55"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" ht="27">
-      <c r="A155" s="4" t="s">
+      <c r="B154" s="55"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="1:2" ht="54">
-      <c r="A156" s="4" t="s">
+      <c r="B155" s="55"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" ht="67.5">
-      <c r="A157" s="4" t="s">
+      <c r="B156" s="55"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" ht="27">
-      <c r="A158" s="4" t="s">
+      <c r="B157" s="55"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:2" ht="27">
-      <c r="A159" s="4" t="s">
+      <c r="B158" s="55"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="1:2" ht="27">
-      <c r="A160" s="20" t="s">
+      <c r="B159" s="55"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:2" ht="40.5">
-      <c r="A161" s="4" t="s">
+      <c r="B160" s="55"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="1:2" ht="40.5">
-      <c r="A162" s="4" t="s">
+      <c r="B161" s="55"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="1:2" ht="67.5">
-      <c r="A163" s="4" t="s">
+      <c r="B162" s="55"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="1:2" ht="67.5">
-      <c r="A164" s="4" t="s">
+      <c r="B163" s="55"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="1:2" ht="54">
-      <c r="A165" s="21" t="s">
+      <c r="B164" s="55"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" ht="54">
-      <c r="A166" s="21" t="s">
+      <c r="B165" s="55"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" ht="54">
-      <c r="A167" s="21" t="s">
+      <c r="B166" s="55"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="2"/>
-    </row>
-    <row r="168" spans="1:2" ht="54">
-      <c r="A168" s="21" t="s">
+      <c r="B167" s="55"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" ht="40.5">
-      <c r="A169" s="22" t="s">
+      <c r="B168" s="55"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" ht="15">
-      <c r="A170" s="23" t="s">
+      <c r="B169" s="55"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="1:2" ht="15">
-      <c r="A171" s="23" t="s">
+      <c r="B170" s="55"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" ht="15">
-      <c r="A172" s="23" t="s">
+      <c r="B171" s="55"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" ht="15">
-      <c r="A173" s="23" t="s">
+      <c r="B172" s="55"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="2"/>
-    </row>
-    <row r="174" spans="1:2" ht="15">
-      <c r="A174" s="23" t="s">
+      <c r="B173" s="55"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" ht="15">
-      <c r="A175" s="23" t="s">
+      <c r="B174" s="55"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" ht="40.5">
-      <c r="A176" s="22" t="s">
+      <c r="B175" s="55"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="2"/>
-    </row>
-    <row r="177" spans="1:2" ht="40.5">
-      <c r="A177" s="22" t="s">
+      <c r="B176" s="55"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" ht="15">
-      <c r="A178" s="23" t="s">
+      <c r="B177" s="55"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:2" ht="15">
-      <c r="A179" s="23" t="s">
+      <c r="B178" s="55"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="2"/>
-    </row>
-    <row r="180" spans="1:2" ht="15">
-      <c r="A180" s="23" t="s">
+      <c r="B179" s="55"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" ht="15">
-      <c r="A181" s="23" t="s">
+      <c r="B180" s="55"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" ht="15">
-      <c r="A182" s="23" t="s">
+      <c r="B181" s="55"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="1:2" ht="15">
-      <c r="A183" s="23" t="s">
+      <c r="B182" s="55"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" ht="15">
-      <c r="A184" s="23" t="s">
+      <c r="B183" s="55"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" ht="15">
-      <c r="A185" s="23" t="s">
+      <c r="B184" s="55"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="1:2" ht="15">
-      <c r="A186" s="23" t="s">
+      <c r="B185" s="55"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" ht="15">
-      <c r="A187" s="23" t="s">
+      <c r="B186" s="55"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" ht="15">
-      <c r="A188" s="23" t="s">
+      <c r="B187" s="55"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="1:2" ht="40.5">
-      <c r="A189" s="4" t="s">
+      <c r="B188" s="55"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" ht="40.5">
-      <c r="A190" s="4" t="s">
+      <c r="B189" s="55"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" ht="27">
-      <c r="A191" s="4" t="s">
+      <c r="B190" s="55"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="2"/>
-    </row>
-    <row r="192" spans="1:2" ht="27">
-      <c r="A192" s="4" t="s">
+      <c r="B191" s="55"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" ht="22.5">
-      <c r="A193" s="1" t="s">
+      <c r="B192" s="55"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+      <c r="B193" s="55"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+    <row r="195">
+      <c r="A195" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+    <row r="196">
+      <c r="A196" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="22.5">
-      <c r="A197" s="1" t="s">
+    <row r="197">
+      <c r="A197" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="54">
-      <c r="A198" s="24" t="s">
+    <row r="198">
+      <c r="A198" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="25"/>
-    </row>
-    <row r="199" spans="1:2" ht="54">
-      <c r="A199" s="24" t="s">
+      <c r="B198" s="78"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="B199" s="25"/>
-    </row>
-    <row r="200" spans="1:2" ht="54">
-      <c r="A200" s="24" t="s">
+      <c r="B199" s="78"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="25"/>
-    </row>
-    <row r="201" spans="1:2" ht="54">
-      <c r="A201" s="24" t="s">
+      <c r="B200" s="78"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="25"/>
-    </row>
-    <row r="202" spans="1:2" ht="54">
-      <c r="A202" s="24" t="s">
+      <c r="B201" s="78"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B202" s="25"/>
-    </row>
-    <row r="203" spans="1:2" ht="54">
-      <c r="A203" s="24" t="s">
+      <c r="B202" s="78"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="B203" s="25"/>
-    </row>
-    <row r="204" spans="1:2" ht="40.5">
-      <c r="A204" s="24" t="s">
+      <c r="B203" s="78"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B204" s="25"/>
-    </row>
-    <row r="205" spans="1:2" ht="40.5">
-      <c r="A205" s="24" t="s">
+      <c r="B204" s="78"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B205" s="25"/>
-    </row>
-    <row r="206" spans="1:2" ht="27">
-      <c r="A206" s="26" t="s">
+      <c r="B205" s="78"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B206" s="27"/>
-    </row>
-    <row r="207" spans="1:2" ht="27">
-      <c r="A207" s="28" t="s">
+      <c r="B206" s="80"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="B207" s="29"/>
-    </row>
-    <row r="208" spans="1:2" ht="27">
-      <c r="A208" s="30" t="s">
+      <c r="B207" s="82"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="31"/>
-    </row>
-    <row r="209" spans="1:2" ht="54">
-      <c r="A209" s="30" t="s">
+      <c r="B208" s="84"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B209" s="31"/>
-    </row>
-    <row r="210" spans="1:2" ht="40.5">
-      <c r="A210" s="30" t="s">
+      <c r="B209" s="84"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="31"/>
-    </row>
-    <row r="211" spans="1:2" ht="40.5">
-      <c r="A211" s="28" t="s">
+      <c r="B210" s="84"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="29"/>
-    </row>
-    <row r="212" spans="1:2" ht="40.5">
-      <c r="A212" s="28" t="s">
+      <c r="B211" s="82"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="29"/>
-    </row>
-    <row r="213" spans="1:2" ht="54">
-      <c r="A213" s="28" t="s">
+      <c r="B212" s="82"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="29"/>
-    </row>
-    <row r="214" spans="1:2" ht="40.5">
-      <c r="A214" s="30" t="s">
+      <c r="B213" s="82"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B214" s="31"/>
-    </row>
-    <row r="215" spans="1:2" ht="54">
-      <c r="A215" s="30" t="s">
+      <c r="B214" s="84"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="31"/>
-    </row>
-    <row r="216" spans="1:2" ht="40.5">
-      <c r="A216" s="30" t="s">
+      <c r="B215" s="84"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="31"/>
-    </row>
-    <row r="217" spans="1:2" ht="54">
-      <c r="A217" s="30" t="s">
+      <c r="B216" s="84"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="B217" s="31"/>
-    </row>
-    <row r="218" spans="1:2" ht="40.5">
-      <c r="A218" s="30" t="s">
+      <c r="B217" s="84"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="B218" s="31"/>
-    </row>
-    <row r="219" spans="1:2" ht="15">
-      <c r="A219" s="23" t="s">
+      <c r="B218" s="84"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" ht="15">
-      <c r="A220" s="23" t="s">
+      <c r="B219" s="55"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="1:2" ht="15">
-      <c r="A221" s="23" t="s">
+      <c r="B220" s="55"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="1:2" ht="15">
-      <c r="A222" s="23" t="s">
+      <c r="B221" s="55"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" ht="15">
-      <c r="A223" s="23" t="s">
+      <c r="B222" s="55"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="1:2" ht="40.5">
-      <c r="A224" s="4" t="s">
+      <c r="B223" s="55"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15">
-      <c r="A225" s="23" t="s">
+    <row r="225">
+      <c r="A225" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" ht="15">
-      <c r="A226" s="23" t="s">
+      <c r="B225" s="55"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="1:2" ht="15">
-      <c r="A227" s="23" t="s">
+      <c r="B226" s="55"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="B227" s="2"/>
-    </row>
-    <row r="228" spans="1:2" ht="27">
-      <c r="A228" s="4" t="s">
+      <c r="B227" s="55"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" ht="40.5">
-      <c r="A229" s="4" t="s">
+      <c r="B228" s="55"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="1:2" ht="54">
-      <c r="A230" s="4" t="s">
+      <c r="B229" s="55"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="40.5">
-      <c r="A231" s="32" t="s">
+    <row r="231">
+      <c r="A231" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="33"/>
-    </row>
-    <row r="232" spans="1:2" ht="45.75">
-      <c r="A232" s="32" t="s">
+      <c r="B231" s="86"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="B232" s="33"/>
-    </row>
-    <row r="233" spans="1:2" ht="27">
-      <c r="A233" s="32" t="s">
+      <c r="B232" s="86"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="33"/>
-    </row>
-    <row r="234" spans="1:2" ht="27">
-      <c r="A234" s="32" t="s">
+      <c r="B233" s="86"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="B234" s="33"/>
-    </row>
-    <row r="235" spans="1:2" ht="27">
-      <c r="A235" s="32" t="s">
+      <c r="B234" s="86"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="33"/>
-    </row>
-    <row r="236" spans="1:2" ht="27">
-      <c r="A236" s="32" t="s">
+      <c r="B235" s="86"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="33"/>
-    </row>
-    <row r="237" spans="1:2" ht="27">
-      <c r="A237" s="32" t="s">
+      <c r="B236" s="86"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="33"/>
-    </row>
-    <row r="238" spans="1:2" ht="27">
-      <c r="A238" s="32" t="s">
+      <c r="B237" s="86"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="B238" s="33"/>
-    </row>
-    <row r="239" spans="1:2" ht="27">
-      <c r="A239" s="32" t="s">
+      <c r="B238" s="86"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="B239" s="33"/>
-    </row>
-    <row r="240" spans="1:2" ht="27">
-      <c r="A240" s="32" t="s">
+      <c r="B239" s="86"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="B240" s="33"/>
-    </row>
-    <row r="241" spans="1:2" ht="27">
-      <c r="A241" s="32" t="s">
+      <c r="B240" s="86"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="B241" s="33"/>
-    </row>
-    <row r="242" spans="1:2" ht="22.5">
-      <c r="A242" s="34" t="s">
+      <c r="B241" s="86"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="B242" s="35"/>
-    </row>
-    <row r="243" spans="1:2" ht="33.75">
-      <c r="A243" s="34" t="s">
+      <c r="B242" s="88"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B243" s="35"/>
-    </row>
-    <row r="244" spans="1:2" ht="33.75">
-      <c r="A244" s="34" t="s">
+      <c r="B243" s="88"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="35"/>
-    </row>
-    <row r="245" spans="1:2" ht="33.75">
-      <c r="A245" s="34" t="s">
+      <c r="B244" s="88"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="B245" s="35"/>
-    </row>
-    <row r="246" spans="1:2" ht="22.5">
-      <c r="A246" s="36" t="s">
+      <c r="B245" s="88"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B246" s="37"/>
-    </row>
-    <row r="247" spans="1:2" ht="33.75">
-      <c r="A247" s="36" t="s">
+      <c r="B246" s="90"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="B247" s="37"/>
-    </row>
-    <row r="248" spans="1:2" ht="33.75">
-      <c r="A248" s="36" t="s">
+      <c r="B247" s="90"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="37"/>
-    </row>
-    <row r="249" spans="1:2" ht="33.75">
-      <c r="A249" s="36" t="s">
+      <c r="B248" s="90"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="B249" s="37"/>
-    </row>
-    <row r="250" spans="1:2" ht="22.5">
-      <c r="A250" s="38" t="s">
+      <c r="B249" s="90"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="B250" s="39"/>
-    </row>
-    <row r="251" spans="1:2" ht="22.5">
-      <c r="A251" s="38" t="s">
+      <c r="B250" s="92"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="39"/>
-    </row>
-    <row r="252" spans="1:2" ht="22.5">
-      <c r="A252" s="38" t="s">
+      <c r="B251" s="92"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="39"/>
-    </row>
-    <row r="253" spans="1:2" ht="22.5">
-      <c r="A253" s="38" t="s">
+      <c r="B252" s="92"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="B253" s="39"/>
-    </row>
-    <row r="254" spans="1:2" ht="22.5">
-      <c r="A254" s="9" t="s">
+      <c r="B253" s="92"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="10"/>
-    </row>
-    <row r="255" spans="1:2" ht="33.75">
-      <c r="A255" s="9" t="s">
+      <c r="B254" s="63"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="B255" s="10"/>
-    </row>
-    <row r="256" spans="1:2" ht="33.75">
-      <c r="A256" s="9" t="s">
+      <c r="B255" s="63"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="B256" s="10"/>
-    </row>
-    <row r="257" spans="1:2" ht="33.75">
-      <c r="A257" s="9" t="s">
+      <c r="B256" s="63"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="B257" s="10"/>
-    </row>
-    <row r="258" spans="1:2" ht="22.5">
-      <c r="A258" s="40" t="s">
+      <c r="B257" s="63"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="41"/>
-    </row>
-    <row r="259" spans="1:2" ht="22.5">
-      <c r="A259" s="40" t="s">
+      <c r="B258" s="94"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="41"/>
-    </row>
-    <row r="260" spans="1:2" ht="22.5">
-      <c r="A260" s="40" t="s">
+      <c r="B259" s="94"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="B260" s="41"/>
-    </row>
-    <row r="261" spans="1:2" ht="22.5">
-      <c r="A261" s="40" t="s">
+      <c r="B260" s="94"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="41"/>
-    </row>
-    <row r="262" spans="1:2" ht="22.5">
-      <c r="A262" s="40" t="s">
+      <c r="B261" s="94"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="B262" s="41"/>
-    </row>
-    <row r="263" spans="1:2" ht="22.5">
-      <c r="A263" s="42" t="s">
+      <c r="B262" s="94"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="B263" s="43"/>
-    </row>
-    <row r="264" spans="1:2" ht="22.5">
-      <c r="A264" s="42" t="s">
+      <c r="B263" s="96"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="43"/>
-    </row>
-    <row r="265" spans="1:2" ht="22.5">
-      <c r="A265" s="42" t="s">
+      <c r="B264" s="96"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="B265" s="43"/>
-    </row>
-    <row r="266" spans="1:2" ht="22.5">
-      <c r="A266" s="42" t="s">
+      <c r="B265" s="96"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="B266" s="43"/>
-    </row>
-    <row r="267" spans="1:2" ht="22.5">
-      <c r="A267" s="44" t="s">
+      <c r="B266" s="96"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="B267" s="45"/>
-    </row>
-    <row r="268" spans="1:2" ht="33.75">
-      <c r="A268" s="44" t="s">
+      <c r="B267" s="98"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="B268" s="45"/>
-    </row>
-    <row r="269" spans="1:2" ht="33.75">
-      <c r="A269" s="44" t="s">
+      <c r="B268" s="98"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="B269" s="45"/>
-    </row>
-    <row r="270" spans="1:2" ht="33.75">
-      <c r="A270" s="44" t="s">
+      <c r="B269" s="98"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="45"/>
-    </row>
-    <row r="271" spans="1:2" ht="22.5">
-      <c r="A271" s="44" t="s">
+      <c r="B270" s="98"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="B271" s="45"/>
-    </row>
-    <row r="272" spans="1:2" ht="22.5">
-      <c r="A272" s="42" t="s">
+      <c r="B271" s="98"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="B272" s="43"/>
-    </row>
-    <row r="273" spans="1:2" ht="22.5">
-      <c r="A273" s="42" t="s">
+      <c r="B272" s="96"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="B273" s="43"/>
-    </row>
-    <row r="274" spans="1:2" ht="22.5">
-      <c r="A274" s="42" t="s">
+      <c r="B273" s="96"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="B274" s="43"/>
-    </row>
-    <row r="275" spans="1:2" ht="22.5">
-      <c r="A275" s="42" t="s">
+      <c r="B274" s="96"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="B275" s="43"/>
-    </row>
-    <row r="276" spans="1:2" ht="22.5">
-      <c r="A276" s="42" t="s">
+      <c r="B275" s="96"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="B276" s="43"/>
-    </row>
-    <row r="277" spans="1:2" ht="22.5">
-      <c r="A277" s="42" t="s">
+      <c r="B276" s="96"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="95" t="s">
         <v>278</v>
       </c>
-      <c r="B277" s="43"/>
-    </row>
-    <row r="278" spans="1:2" ht="22.5">
-      <c r="A278" s="42" t="s">
+      <c r="B277" s="96"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="B278" s="43"/>
-    </row>
-    <row r="279" spans="1:2" ht="22.5">
-      <c r="A279" s="42" t="s">
+      <c r="B278" s="96"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="B279" s="43"/>
-    </row>
-    <row r="280" spans="1:2" ht="22.5">
-      <c r="A280" s="42" t="s">
+      <c r="B279" s="96"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="B280" s="43"/>
-    </row>
-    <row r="281" spans="1:2" ht="33.75">
-      <c r="A281" s="42" t="s">
+      <c r="B280" s="96"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="B281" s="43"/>
-    </row>
-    <row r="282" spans="1:2" ht="33.75">
-      <c r="A282" s="42" t="s">
+      <c r="B281" s="96"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="B282" s="43"/>
-    </row>
-    <row r="283" spans="1:2" ht="33.75">
-      <c r="A283" s="42" t="s">
+      <c r="B282" s="96"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="B283" s="43"/>
-    </row>
-    <row r="284" spans="1:2" ht="22.5">
-      <c r="A284" s="42" t="s">
+      <c r="B283" s="96"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="B284" s="43"/>
-    </row>
-    <row r="285" spans="1:2" ht="22.5">
-      <c r="A285" s="42" t="s">
+      <c r="B284" s="96"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B285" s="43"/>
-    </row>
-    <row r="286" spans="1:2" ht="22.5">
-      <c r="A286" s="1" t="s">
+      <c r="B285" s="96"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="B286" s="2"/>
-    </row>
-    <row r="287" spans="1:2" ht="22.5">
-      <c r="A287" s="1" t="s">
+      <c r="B286" s="55"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="54" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="27">
-      <c r="A288" s="30" t="s">
+    <row r="288">
+      <c r="A288" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="B288" s="31"/>
+      <c r="B288" s="84"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>